--- a/@ MBKM/G1401211006_Laporan EC_Angga Fathan Rofiqy - BANGKIT .xlsx
+++ b/@ MBKM/G1401211006_Laporan EC_Angga Fathan Rofiqy - BANGKIT .xlsx
@@ -37,7 +37,7 @@
     <t>Matriculation Course dengan materi: “Memulai Dasar Pemrograman untuk Menjadi Pengembang Software”</t>
   </si>
   <si>
-    <t>18.30 – 23.15</t>
+    <t>18.30 - 23.15</t>
   </si>
   <si>
     <t>Platform Dicoding</t>
@@ -53,8 +53,8 @@
 Belajar Matriculation Course dengan materi: “Pengenalan ke Logika Pemrograman (Programming Logic 101)”</t>
   </si>
   <si>
-    <t>07.00 – 09.30
-21.00 – 22.30</t>
+    <t>07.00 - 09.30
+21.00 - 22.30</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/1NepM57m1IHDMe6yTc9NWpKdEQG_cXudv/view?usp=drive_link</t>
@@ -64,8 +64,8 @@
 Matriculation course dengan materi “Belajar Git dengan Github”</t>
   </si>
   <si>
-    <t>10.00 – 11.00
-20.00 – 22.30</t>
+    <t>10.00 - 11.00
+20.00 - 22.30</t>
   </si>
   <si>
     <t>Google form
@@ -80,7 +80,7 @@
 Github”</t>
   </si>
   <si>
-    <t>14.00 – 15.45</t>
+    <t>14.00 - 15.45</t>
   </si>
   <si>
     <t>Youtube Kemendikbud Ristek 
@@ -95,7 +95,7 @@
 Github”</t>
   </si>
   <si>
-    <t>10.00 – 14.00</t>
+    <t>10.00 - 14.00</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/1XC7Utbg39VSxZivoh0Q6khxwwslreeCY/view?usp=drive_link</t>
@@ -108,8 +108,8 @@
 Bangkit Technical Briefing Session</t>
   </si>
   <si>
-    <t>09.00 – 11.00
-13.00 – 16.00</t>
+    <t>09.00 - 11.00
+13.00 - 16.00</t>
   </si>
   <si>
     <t>Youtube Bangkit Academy</t>
@@ -124,8 +124,8 @@
   </si>
   <si>
     <t>09.00-11.00
-11:00– 12:00
-15.00 – 21.30</t>
+11:00- 12:00
+15.00 - 21.30</t>
   </si>
   <si>
     <t>Google Meet 
@@ -139,8 +139,8 @@
     <t>Melanjutkan pembelajaran “Crash Course on Python”</t>
   </si>
   <si>
-    <t>16.30 – 23.30
-18.30 – 19.30</t>
+    <t>16.30 - 23.30
+18.30 - 19.30</t>
   </si>
   <si>
     <t>Platform Coursera
@@ -155,9 +155,9 @@
 Melanjutkan pembelajaran “crash course on Python”</t>
   </si>
   <si>
-    <t>10.00 – 11.30
-16:00 – 17:00
-19.00 – 23.00</t>
+    <t>10.00 - 11.30
+16:00 - 17:00
+19.00 - 23.00</t>
   </si>
   <si>
     <t>Youtube Bangkit Academy
@@ -184,7 +184,7 @@
 Interact OS”</t>
   </si>
   <si>
-    <t>10.00 – 16.00</t>
+    <t>10.00 - 16.00</t>
   </si>
   <si>
     <t>Platform Coursera</t>
@@ -197,7 +197,7 @@
 Python to Interact OS”</t>
   </si>
   <si>
-    <t>13.00 – 22.00</t>
+    <t>13.00 - 22.00</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/1O2yosFzuViWfKLgolGwQBrzy_Qqlmx0c/view?usp=drive_link</t>
@@ -207,7 +207,7 @@
 Python to Interact OS”</t>
   </si>
   <si>
-    <t>13.00 – 20.00</t>
+    <t>13.00 - 20.00</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/1MMLYkvy3X1G4OsW5G6JFr3D01m3-a9if/view?usp=drive_link</t>
@@ -218,8 +218,8 @@
 and Github”</t>
   </si>
   <si>
-    <t>11:00– 12:00
-13.00 – 22.00</t>
+    <t>11:00- 12:00
+13.00 - 22.00</t>
   </si>
   <si>
     <t>Google Meet
@@ -233,8 +233,8 @@
 “Introduction Git and Github”</t>
   </si>
   <si>
-    <t>08.00 – 09.30
-17.00 – 23.30</t>
+    <t>08.00 - 09.30
+17.00 - 23.30</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/10niOg_r6-fSGgmQhV4YnJEchB5aVClQC/view?usp=drive_link</t>
@@ -244,8 +244,8 @@
 Membuat essay penugasan ILT SS 01 tentang Growth Mindset</t>
   </si>
   <si>
-    <t>15.30 – 16.30
-20.00 – 22.30</t>
+    <t>15.30 - 16.30
+20.00 - 22.30</t>
   </si>
   <si>
     <t>Google Meet
@@ -259,8 +259,8 @@
 Sosialisasi Pengisian Logbook Bangkit Guest Speaker Session 1</t>
   </si>
   <si>
-    <t>15.30 – 17.30
-15.30 – 17.30
+    <t>15.30 - 17.30
+15.30 - 17.30
 (Waktunya bersamaan)</t>
   </si>
   <si>
@@ -276,7 +276,7 @@
 Analysis with Python”</t>
   </si>
   <si>
-    <t>09.00 – 22.00</t>
+    <t>09.00 - 22.00</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/1cm4u7BhPIGS1TtHUX8BBeBDP6TUOOOIO/view?usp=drive_link</t>
@@ -286,7 +286,7 @@
 “Learn Data Analysis with Python”</t>
   </si>
   <si>
-    <t>09.00 – 01.00</t>
+    <t>09.00 - 01.00</t>
   </si>
   <si>
     <t>Jupyter notebook,
@@ -299,7 +299,7 @@
     <t>[Non-Mandatory] Cohort Room with Bangkit Team</t>
   </si>
   <si>
-    <t>11:00 – 12:00</t>
+    <t>11:00 - 12:00</t>
   </si>
   <si>
     <t>Google Meet</t>
@@ -311,7 +311,7 @@
     <t>[Mandatory] Bangkit 2024 Batch 1 - Student Team Meeting 1</t>
   </si>
   <si>
-    <t>13.00 – 15.00</t>
+    <t>13.00 - 15.00</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/1q1XQ_fRwI6A0liRKuwnhPNJzOd_IShA-/view?usp=drive_link</t>
@@ -322,9 +322,9 @@
 [Non-Mandatory] Bangkit 2024 Batch 1 Guest Speaker Session #2</t>
   </si>
   <si>
-    <t>14.00 – 22.00
-15:30 – 16:30
-15.30 – 17.30</t>
+    <t>14.00 - 22.00
+15:30 - 16:30
+15.30 - 17.30</t>
   </si>
   <si>
     <t>Coursera
@@ -340,8 +340,8 @@
 Data to Answer The Question”</t>
   </si>
   <si>
-    <t>9:00 – 11:00
-11.00 – 17.00</t>
+    <t>9:00 - 11:00
+11.00 - 17.00</t>
   </si>
   <si>
     <t>Google Meet
@@ -355,7 +355,7 @@
 “Analyze Data to Answer The Question”</t>
   </si>
   <si>
-    <t>10.00 – 17.00</t>
+    <t>10.00 - 17.00</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/18sZKnpSHfyxGx6NWL4Fv79W_w6AZwwyN/view?usp=drive_link</t>
@@ -366,8 +366,8 @@
 Mengerjakan tugas time management ILT SS 02</t>
   </si>
   <si>
-    <t>13.00 – 17.00
-17.05 – 18.35</t>
+    <t>13.00 - 17.00
+17.05 - 18.35</t>
   </si>
   <si>
     <t>Coursera
@@ -381,8 +381,8 @@
 Sapa DPP dan Mahasiswa MSIB-6 PT. Dicoding Academy Indonesia</t>
   </si>
   <si>
-    <t>09.30 – 23.00
-14:00 – 16:00</t>
+    <t>09.30 - 23.00
+14:00 - 16:00</t>
   </si>
   <si>
     <t>Coursera
@@ -397,9 +397,9 @@
 ILT-ML-02-AW Deep Dive into Data Analysis</t>
   </si>
   <si>
-    <t>08.00 – 10.45
-13.00 – 15.00
-15.30 – 17.30</t>
+    <t>08.00 - 10.45
+13.00 - 15.00
+15.30 - 17.30</t>
   </si>
   <si>
     <t>Coursera
@@ -414,8 +414,8 @@
 [Non-Mandatory] Bangkit 2024 Batch 1 Guest Speaker Session #3</t>
   </si>
   <si>
-    <t>09.30 – 11.45
-15:30 – 17:30</t>
+    <t>09.30 - 11.45
+15:30 - 17:30</t>
   </si>
   <si>
     <t>Microsoft word
@@ -562,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -600,6 +600,9 @@
     <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
   </cellXfs>
@@ -1422,8 +1425,13 @@
       </c>
       <c r="E30" s="12"/>
     </row>
+    <row r="31">
+      <c r="D31" s="14">
+        <v>41675.0</v>
+      </c>
+    </row>
     <row r="35">
-      <c r="D35" s="14"/>
+      <c r="D35" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
